--- a/benchmarks/analysis/xor.xlsx
+++ b/benchmarks/analysis/xor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/benchmarks/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CBC67-EE05-5C4B-A440-56AA43DED302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627ADA9D-0847-A047-9F24-487E06E44ECE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1300" windowWidth="40260" windowHeight="24420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1240" windowWidth="40260" windowHeight="24420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clauses-scaling" sheetId="6" r:id="rId1"/>
@@ -87,10 +87,10 @@
     <t>Tree-Noquant</t>
   </si>
   <si>
-    <t>Linear-Noquant</t>
+    <t>Bucket-Random</t>
   </si>
   <si>
-    <t>Bucket-Random</t>
+    <t>Linear</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -599,6 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -734,108 +735,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'clauses-scaling'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tree-Noquant</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'clauses-scaling'!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'clauses-scaling'!$K$2:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26056</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4996008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19957164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78701040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C8B3-E84D-A673-E58B9C5651B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'clauses-scaling'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Linear-Noquant</c:v>
+                  <c:v>Linear</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,7 +847,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'clauses-scaling'!$B$1</c:f>
@@ -3274,108 +3182,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'clauses-scaling'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tree-Noquant</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'clauses-scaling'!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'clauses-scaling'!$K$2:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26056</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4996008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19957164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78701040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DFD3-6845-9AE0-470A357AB8FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'clauses-scaling'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Linear-Noquant</c:v>
+                  <c:v>Linear</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3479,7 +3294,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'clauses-scaling'!$B$1</c:f>
@@ -16621,7 +16436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B196FC-C838-2346-A098-16784AD355BF}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -16638,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
@@ -16663,7 +16478,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -16835,6 +16650,13 @@
         <f t="shared" si="1"/>
         <v>4.115710338012379</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <f>POWER(10,F8)</f>
+        <v>541.31866375046559</v>
+      </c>
       <c r="H6">
         <v>24</v>
       </c>
@@ -16869,6 +16691,13 @@
         <f t="shared" si="1"/>
         <v>4.2182991258851725</v>
       </c>
+      <c r="E7">
+        <v>8192</v>
+      </c>
+      <c r="F7" s="11">
+        <f>POWER(10,F9)</f>
+        <v>156755679.14954472</v>
+      </c>
       <c r="H7">
         <v>32</v>
       </c>
@@ -16897,6 +16726,14 @@
         <f t="shared" si="1"/>
         <v>4.4074248987944076</v>
       </c>
+      <c r="E8">
+        <f>LOG(E6)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="F8">
+        <f>TREND(D$2:D$72, C$2:C$72,E8)</f>
+        <v>2.7334530010871894</v>
+      </c>
       <c r="H8">
         <v>40</v>
       </c>
@@ -16924,6 +16761,14 @@
       <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>4.5225876704565042</v>
+      </c>
+      <c r="E9">
+        <f>LOG(E7)</f>
+        <v>3.9133899436317554</v>
+      </c>
+      <c r="F9">
+        <f>TREND(D$2:D$72, C$2:C$72,E9)</f>
+        <v>8.1952232839756736</v>
       </c>
       <c r="H9">
         <v>48</v>

--- a/benchmarks/analysis/xor.xlsx
+++ b/benchmarks/analysis/xor.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/benchmarks/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627ADA9D-0847-A047-9F24-487E06E44ECE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62FC8A7-ADD4-CC47-BC30-E0D25F9C3702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="1240" windowWidth="40260" windowHeight="24420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="clauses-scaling" sheetId="6" r:id="rId1"/>
-    <sheet name="clauses-OK" sheetId="5" r:id="rId2"/>
-    <sheet name="resolutions" sheetId="4" r:id="rId3"/>
-    <sheet name="resolutions-precompress" sheetId="3" r:id="rId4"/>
-    <sheet name="resolutions-pregc" sheetId="1" r:id="rId5"/>
-    <sheet name="trend" sheetId="2" r:id="rId6"/>
+    <sheet name="lrat clauses" sheetId="7" r:id="rId1"/>
+    <sheet name="clauses-scaling" sheetId="6" r:id="rId2"/>
+    <sheet name="clauses-OK" sheetId="5" r:id="rId3"/>
+    <sheet name="resolutions" sheetId="4" r:id="rId4"/>
+    <sheet name="resolutions-precompress" sheetId="3" r:id="rId5"/>
+    <sheet name="resolutions-pregc" sheetId="1" r:id="rId6"/>
+    <sheet name="trend" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>n</t>
   </si>
@@ -739,7 +740,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'clauses-scaling'!$M$1</c:f>
+              <c:f>'lrat clauses'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -774,7 +775,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$L$2:$L$9</c:f>
+              <c:f>'lrat clauses'!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -807,7 +808,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$M$2:$M$9</c:f>
+              <c:f>'lrat clauses'!$M$2:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -841,7 +842,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C8B3-E84D-A673-E58B9C5651B1}"/>
+              <c16:uniqueId val="{00000000-05FD-FB45-B745-271BAEC533C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -850,7 +851,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'clauses-scaling'!$B$1</c:f>
+              <c:f>'lrat clauses'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -885,7 +886,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$A$2:$A$68</c:f>
+              <c:f>'lrat clauses'!$A$2:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -953,352 +954,250 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>272</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>288</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>304</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>320</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>336</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>352</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>368</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>384</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>400</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>416</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>432</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>448</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>464</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>480</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>496</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>544</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>576</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>608</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>640</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>672</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>704</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>736</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>768</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>800</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>828</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>832</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>840</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>872</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$B$2:$B$68</c:f>
+              <c:f>'lrat clauses'!$B$2:$B$68</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>715</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2648</c:v>
+                  <c:v>2266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4944</c:v>
+                  <c:v>4266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7695</c:v>
+                  <c:v>6606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13053</c:v>
+                  <c:v>10990</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16531</c:v>
+                  <c:v>20612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25552</c:v>
+                  <c:v>24559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33311</c:v>
+                  <c:v>34180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49699</c:v>
+                  <c:v>51736</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67903</c:v>
+                  <c:v>57976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99532</c:v>
+                  <c:v>94107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103042</c:v>
+                  <c:v>133062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>124661</c:v>
+                  <c:v>132858</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>185504</c:v>
+                  <c:v>176426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199018</c:v>
+                  <c:v>227226</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>252618</c:v>
+                  <c:v>248204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>319341</c:v>
+                  <c:v>251115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>316986</c:v>
+                  <c:v>279484</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>380408</c:v>
+                  <c:v>317784</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>365182</c:v>
+                  <c:v>465105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>477113</c:v>
+                  <c:v>410830</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>571166</c:v>
+                  <c:v>559007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>509160</c:v>
+                  <c:v>503021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>639967</c:v>
+                  <c:v>787078</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>714293</c:v>
+                  <c:v>862155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>656513</c:v>
+                  <c:v>1340399</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>683655</c:v>
+                  <c:v>1324147</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>831497</c:v>
+                  <c:v>1356069</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>759954</c:v>
+                  <c:v>1486631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>941006</c:v>
+                  <c:v>1653477</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1075849</c:v>
+                  <c:v>2446128</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1107983</c:v>
+                  <c:v>2647618</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1289054</c:v>
+                  <c:v>3112774</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1209158</c:v>
+                  <c:v>3821618</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1373183</c:v>
+                  <c:v>4011227</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1261527</c:v>
+                  <c:v>4388784</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1569507</c:v>
+                  <c:v>4979097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1425097</c:v>
+                  <c:v>6029403</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1967661</c:v>
+                  <c:v>7179716</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2186368</c:v>
+                  <c:v>7957617</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1858070</c:v>
+                  <c:v>9629902</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2699298</c:v>
+                  <c:v>10165254</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2242392</c:v>
+                  <c:v>12942687</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2953107</c:v>
+                  <c:v>13206323</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3179932</c:v>
+                  <c:v>14182703</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3702114</c:v>
+                  <c:v>17555815</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3324800</c:v>
+                  <c:v>18107956</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2932747</c:v>
+                  <c:v>40592272</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4199112</c:v>
+                  <c:v>67332210</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4030029</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3493792</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4558744</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3823037</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4164703</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4889141</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4558003</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5479172</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5400242</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6658367</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6942480</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9886699</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10306764</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11551699</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12816072</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13704518</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>15606253</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>20039990</c:v>
+                  <c:v>109360142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,7 +1205,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8B3-E84D-A673-E58B9C5651B1}"/>
+              <c16:uniqueId val="{00000001-05FD-FB45-B745-271BAEC533C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1588,7 +1487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'resolutions-pregc'!$B$1</c:f>
+              <c:f>'resolutions-precompress'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1623,10 +1522,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'resolutions-pregc'!$A$2:$A$26</c:f>
+              <c:f>'resolutions-precompress'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1701,90 +1600,240 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'resolutions-pregc'!$B$2:$B$26</c:f>
+              <c:f>'resolutions-precompress'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2376</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6336</c:v>
+                  <c:v>5724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12164</c:v>
+                  <c:v>12840</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21484</c:v>
+                  <c:v>25320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36176</c:v>
+                  <c:v>35360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48696</c:v>
+                  <c:v>47600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56456</c:v>
+                  <c:v>60760</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74472</c:v>
+                  <c:v>81400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95648</c:v>
+                  <c:v>102600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113592</c:v>
+                  <c:v>116600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141848</c:v>
+                  <c:v>139960</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156820</c:v>
+                  <c:v>160160</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>196688</c:v>
+                  <c:v>188040</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>213248</c:v>
+                  <c:v>203240</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>269700</c:v>
+                  <c:v>247600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273524</c:v>
+                  <c:v>271800</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>335660</c:v>
+                  <c:v>312840</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>355464</c:v>
+                  <c:v>341880</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>382536</c:v>
+                  <c:v>383880</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>411856</c:v>
+                  <c:v>418920</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>420644</c:v>
+                  <c:v>500400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>528636</c:v>
+                  <c:v>524560</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>567912</c:v>
+                  <c:v>580800</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>606352</c:v>
+                  <c:v>630440</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>636020</c:v>
+                  <c:v>655600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>746440</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>770640</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>788440</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>902560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>960920</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1011000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1103400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1205920</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1259480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1271200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1381160</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1488600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1610360</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1664440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1746760</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1783240</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2029560</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1984320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2072480</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2131600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2358240</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2409320</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2501920</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2529000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,7 +1841,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0273-1A4D-BE6E-968A81892D25}"/>
+              <c16:uniqueId val="{00000000-82BC-6F4D-ADF7-18215FB544F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2002,6 +2051,910 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resolutions-pregc'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resolutions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'resolutions-pregc'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'resolutions-pregc'!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141848</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156820</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196688</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>269700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>335660</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>355464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>382536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>411856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420644</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>528636</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>567912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>606352</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>636020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0273-1A4D-BE6E-968A81892D25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1227862576"/>
+        <c:axId val="1231847008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1227862576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231847008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1231847008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227862576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resolutions-pregc'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resolutions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'resolutions-pregc'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'resolutions-pregc'!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141848</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156820</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196688</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>269700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>335660</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>355464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>382536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>411856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420644</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>528636</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>567912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>606352</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>636020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0273-1A4D-BE6E-968A81892D25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1227862576"/>
+        <c:axId val="1231847008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1227862576"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231847008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1231847008"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="2048"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227862576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2537,7 +3490,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3186,7 +4139,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'clauses-scaling'!$M$1</c:f>
+              <c:f>'lrat clauses'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3221,7 +4174,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$L$2:$L$9</c:f>
+              <c:f>'lrat clauses'!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3254,7 +4207,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$M$2:$M$9</c:f>
+              <c:f>'lrat clauses'!$M$2:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3288,7 +4241,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DFD3-6845-9AE0-470A357AB8FE}"/>
+              <c16:uniqueId val="{00000000-33E4-4046-A4D9-6FDDD67571DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3297,7 +4250,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'clauses-scaling'!$B$1</c:f>
+              <c:f>'lrat clauses'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3332,7 +4285,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$A$2:$A$72</c:f>
+              <c:f>'lrat clauses'!$A$2:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -3400,376 +4353,250 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>272</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>288</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>304</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>320</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>336</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>352</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>368</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>384</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>400</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>416</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>432</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>448</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>464</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>480</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>496</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>544</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>576</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>608</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>640</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>672</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>704</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>736</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>768</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>800</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>828</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>832</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>840</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>872</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="69">
                   <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'clauses-scaling'!$B$2:$B$72</c:f>
+              <c:f>'lrat clauses'!$B$2:$B$72</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>715</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2648</c:v>
+                  <c:v>2266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4944</c:v>
+                  <c:v>4266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7695</c:v>
+                  <c:v>6606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13053</c:v>
+                  <c:v>10990</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16531</c:v>
+                  <c:v>20612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25552</c:v>
+                  <c:v>24559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33311</c:v>
+                  <c:v>34180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49699</c:v>
+                  <c:v>51736</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67903</c:v>
+                  <c:v>57976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99532</c:v>
+                  <c:v>94107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103042</c:v>
+                  <c:v>133062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>124661</c:v>
+                  <c:v>132858</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>185504</c:v>
+                  <c:v>176426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199018</c:v>
+                  <c:v>227226</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>252618</c:v>
+                  <c:v>248204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>319341</c:v>
+                  <c:v>251115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>316986</c:v>
+                  <c:v>279484</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>380408</c:v>
+                  <c:v>317784</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>365182</c:v>
+                  <c:v>465105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>477113</c:v>
+                  <c:v>410830</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>571166</c:v>
+                  <c:v>559007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>509160</c:v>
+                  <c:v>503021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>639967</c:v>
+                  <c:v>787078</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>714293</c:v>
+                  <c:v>862155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>656513</c:v>
+                  <c:v>1340399</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>683655</c:v>
+                  <c:v>1324147</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>831497</c:v>
+                  <c:v>1356069</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>759954</c:v>
+                  <c:v>1486631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>941006</c:v>
+                  <c:v>1653477</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1075849</c:v>
+                  <c:v>2446128</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1107983</c:v>
+                  <c:v>2647618</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1289054</c:v>
+                  <c:v>3112774</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1209158</c:v>
+                  <c:v>3821618</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1373183</c:v>
+                  <c:v>4011227</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1261527</c:v>
+                  <c:v>4388784</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1569507</c:v>
+                  <c:v>4979097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1425097</c:v>
+                  <c:v>6029403</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1967661</c:v>
+                  <c:v>7179716</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2186368</c:v>
+                  <c:v>7957617</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1858070</c:v>
+                  <c:v>9629902</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2699298</c:v>
+                  <c:v>10165254</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2242392</c:v>
+                  <c:v>12942687</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2953107</c:v>
+                  <c:v>13206323</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3179932</c:v>
+                  <c:v>14182703</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3702114</c:v>
+                  <c:v>17555815</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3324800</c:v>
+                  <c:v>18107956</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2932747</c:v>
+                  <c:v>40592272</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4199112</c:v>
+                  <c:v>67332210</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4030029</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3493792</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4558744</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3823037</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4164703</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4889141</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4558003</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5479172</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5400242</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6658367</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6942480</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9886699</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10306764</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11551699</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12816072</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13704518</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>15606253</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>20039990</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40601691</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68788421</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>106834328</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>155474042</c:v>
+                  <c:v>109360142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3777,7 +4604,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFD3-6845-9AE0-470A357AB8FE}"/>
+              <c16:uniqueId val="{00000001-33E4-4046-A4D9-6FDDD67571DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4136,6 +4963,1834 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clauses-scaling'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1324539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4095084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7131764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15225960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C8B3-E84D-A673-E58B9C5651B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clauses-scaling'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bucket-Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$A$2:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$B$2:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99532</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103042</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>252618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>319341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>316986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>365182</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>477113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>571166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>509160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>639967</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>714293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>656513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>683655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>831497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>759954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>941006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1075849</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1107983</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1289054</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1209158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1373183</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1261527</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1569507</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1425097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1967661</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2186368</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1858070</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2699298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2242392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2953107</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3179932</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3702114</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3324800</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2932747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4199112</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4030029</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3493792</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4558744</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3823037</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4164703</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4889141</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4558003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5479172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5400242</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6658367</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6942480</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9886699</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10306764</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11551699</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12816072</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13704518</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15606253</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20039990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8B3-E84D-A673-E58B9C5651B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1227862576"/>
+        <c:axId val="1231847008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1227862576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231847008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1231847008"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227862576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Xor Tree Clauses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clauses-scaling'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1324539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4095084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7131764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15225960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DFD3-6845-9AE0-470A357AB8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clauses-scaling'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bucket-Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$A$2:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'clauses-scaling'!$B$2:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99532</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103042</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>252618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>319341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>316986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>365182</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>477113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>571166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>509160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>639967</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>714293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>656513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>683655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>831497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>759954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>941006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1075849</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1107983</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1289054</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1209158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1373183</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1261527</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1569507</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1425097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1967661</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2186368</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1858070</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2699298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2242392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2953107</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3179932</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3702114</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3324800</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2932747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4199112</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4030029</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3493792</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4558744</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3823037</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4164703</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4889141</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4558003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5479172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5400242</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6658367</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6942480</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9886699</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10306764</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11551699</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12816072</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13704518</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15606253</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20039990</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40601691</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68788421</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>106834328</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>155474042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFD3-6845-9AE0-470A357AB8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1227862576"/>
+        <c:axId val="1231847008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1227862576"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231847008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1231847008"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227862576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Xor Tree Clauses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -5138,7 +7793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6271,7 +8926,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6609,1139 +9264,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C7A2-0A41-9122-EE9651EF1A36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1227862576"/>
-        <c:axId val="1231847008"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1227862576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="500"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1231847008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1231847008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1227862576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>resolutions!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resolutions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>resolutions!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>resolutions!$B$2:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1860</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2652</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4748</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6056</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10576</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15968</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31672</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55496</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75520</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>98224</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>157328</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>188712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>229616</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>282920</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>349544</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>391168</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>502312</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>562576</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>599880</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>723984</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>773008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>857032</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1004056</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1114600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1212704</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1258008</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1420392</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1629816</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1696360</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1824624</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1923248</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2175392</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2194016</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2429960</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2595104</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2796808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F4CD-1143-B548-CECDA065C728}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1227862576"/>
-        <c:axId val="1231847008"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1227862576"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:min val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1231847008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1231847008"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:min val="2048"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1227862576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'resolutions-precompress'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resolutions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'resolutions-precompress'!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'resolutions-precompress'!$B$2:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2324</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5724</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12840</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25320</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35360</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60760</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>81400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>102600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>116600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>139960</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>160160</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>188040</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>203240</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>247600</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>271800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>312840</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>341880</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>383880</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>418920</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>500400</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>524560</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>580800</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>630440</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>655600</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>746440</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>770640</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>788440</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>902560</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>960920</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1011000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1103400</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1205920</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1259480</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1271200</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1381160</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1366400</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1488600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1610360</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1664440</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1746760</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1783240</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2029560</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1984320</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2072480</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2131600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2358240</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2409320</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2501920</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2529000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EED4-D04A-82F7-9E44DE8DACC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7988,7 +9510,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'resolutions-precompress'!$B$1</c:f>
+              <c:f>resolutions!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8023,318 +9545,246 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'resolutions-precompress'!$A$2:$A$51</c:f>
+              <c:f>resolutions!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>310</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>320</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>330</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>340</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>350</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>360</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>370</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'resolutions-precompress'!$B$2:$B$51</c:f>
+              <c:f>resolutions!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>2324</c:v>
+                  <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5724</c:v>
+                  <c:v>1860</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12840</c:v>
+                  <c:v>2652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25320</c:v>
+                  <c:v>4748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35360</c:v>
+                  <c:v>6056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47600</c:v>
+                  <c:v>10576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60760</c:v>
+                  <c:v>15968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81400</c:v>
+                  <c:v>20400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102600</c:v>
+                  <c:v>31672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116600</c:v>
+                  <c:v>55496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>139960</c:v>
+                  <c:v>75520</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>160160</c:v>
+                  <c:v>98224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>188040</c:v>
+                  <c:v>157328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>203240</c:v>
+                  <c:v>188712</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>247600</c:v>
+                  <c:v>229616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>271800</c:v>
+                  <c:v>282920</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>312840</c:v>
+                  <c:v>349544</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>341880</c:v>
+                  <c:v>391168</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>383880</c:v>
+                  <c:v>502312</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>418920</c:v>
+                  <c:v>562576</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>500400</c:v>
+                  <c:v>599880</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>524560</c:v>
+                  <c:v>723984</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>580800</c:v>
+                  <c:v>773008</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>630440</c:v>
+                  <c:v>857032</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>655600</c:v>
+                  <c:v>1004056</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>746440</c:v>
+                  <c:v>1114600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>770640</c:v>
+                  <c:v>1212704</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>788440</c:v>
+                  <c:v>1258008</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>902560</c:v>
+                  <c:v>1420392</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>960920</c:v>
+                  <c:v>1629816</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1011000</c:v>
+                  <c:v>1696360</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1103400</c:v>
+                  <c:v>1824624</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1205920</c:v>
+                  <c:v>1923248</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1259480</c:v>
+                  <c:v>2175392</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1271200</c:v>
+                  <c:v>2194016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1381160</c:v>
+                  <c:v>2429960</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1366400</c:v>
+                  <c:v>2595104</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1488600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1610360</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1664440</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1746760</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1783240</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2029560</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1984320</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2072480</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2131600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2358240</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2409320</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2501920</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2529000</c:v>
+                  <c:v>2796808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8342,7 +9792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82BC-6F4D-ADF7-18215FB544F3}"/>
+              <c16:uniqueId val="{00000000-F4CD-1143-B548-CECDA065C728}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8592,7 +10042,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'resolutions-pregc'!$B$1</c:f>
+              <c:f>'resolutions-precompress'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8627,10 +10077,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'resolutions-pregc'!$A$2:$A$26</c:f>
+              <c:f>'resolutions-precompress'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8705,90 +10155,240 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'resolutions-pregc'!$B$2:$B$26</c:f>
+              <c:f>'resolutions-precompress'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2376</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6336</c:v>
+                  <c:v>5724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12164</c:v>
+                  <c:v>12840</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21484</c:v>
+                  <c:v>25320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36176</c:v>
+                  <c:v>35360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48696</c:v>
+                  <c:v>47600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56456</c:v>
+                  <c:v>60760</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74472</c:v>
+                  <c:v>81400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95648</c:v>
+                  <c:v>102600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113592</c:v>
+                  <c:v>116600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141848</c:v>
+                  <c:v>139960</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156820</c:v>
+                  <c:v>160160</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>196688</c:v>
+                  <c:v>188040</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>213248</c:v>
+                  <c:v>203240</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>269700</c:v>
+                  <c:v>247600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273524</c:v>
+                  <c:v>271800</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>335660</c:v>
+                  <c:v>312840</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>355464</c:v>
+                  <c:v>341880</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>382536</c:v>
+                  <c:v>383880</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>411856</c:v>
+                  <c:v>418920</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>420644</c:v>
+                  <c:v>500400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>528636</c:v>
+                  <c:v>524560</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>567912</c:v>
+                  <c:v>580800</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>606352</c:v>
+                  <c:v>630440</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>636020</c:v>
+                  <c:v>655600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>746440</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>770640</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>788440</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>902560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>960920</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1011000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1103400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1205920</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1259480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1271200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1381160</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1488600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1610360</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1664440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1746760</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1783240</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2029560</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1984320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2072480</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2131600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2358240</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2409320</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2501920</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2529000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8796,7 +10396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0273-1A4D-BE6E-968A81892D25}"/>
+              <c16:uniqueId val="{00000000-EED4-D04A-82F7-9E44DE8DACC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8815,6 +10415,7 @@
         <c:axId val="1227862576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9108,6 +10709,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11531,7 +13212,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12047,7 +13728,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12563,7 +14244,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13079,7 +14760,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13595,7 +15276,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14111,7 +15792,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14627,7 +16308,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15143,7 +16824,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15659,7 +17340,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6E14A3-43C9-7B4B-9F9A-9DB80A0C6E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F371D4AD-EBA6-E547-9A53-44493C8B7AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15740,7 +18534,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15821,7 +18615,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15902,7 +18696,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15983,7 +18777,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16060,7 +18854,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16433,10 +19227,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B7A7D3-CD5B-3942-8A8F-E2B59FB63DE6}">
+  <dimension ref="A1:M72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="5"/>
+    <col min="13" max="13" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>430</v>
+      </c>
+      <c r="C2" s="5">
+        <f>LOG(A2)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="D2" s="5">
+        <f>LOG(B2)</f>
+        <v>2.6334684555795866</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>TREND(D$2:D$51, C$2:C$51,E2)</f>
+        <v>1.6767859660965323</v>
+      </c>
+      <c r="G2">
+        <f>F3-F2</f>
+        <v>1.6750088646194961</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>728</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>848</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2266</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:D60" si="0">LOG(A3)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3552599055273786</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>TREND(D$2:D$51, C$2:C$51,E3)</f>
+        <v>3.3517948307160284</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>2052</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>26056</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4266</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>3.63002085111341</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>3560</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>4996008</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4" s="8">
+        <v>39628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>6606</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8199385693553953</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>5858</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>19957164</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5" s="8">
+        <v>252970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>10990</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0409976924234909</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <f>POWER(10,F8)</f>
+        <v>484.44200019414581</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>10354</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>78701040</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1324539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>20612</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.3141201337890376</v>
+      </c>
+      <c r="E7">
+        <v>8192</v>
+      </c>
+      <c r="F7" s="11">
+        <f>POWER(10,F9)</f>
+        <v>170509590.89450252</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>14986</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4095084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>24559</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>4.3902106791090469</v>
+      </c>
+      <c r="E8">
+        <f>LOG(E6)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="F8">
+        <f>TREND(D$2:D$51, C$2:C$51,E8)</f>
+        <v>2.685241788603606</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>22390</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8" s="9">
+        <v>7131764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>34180</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6812412373755872</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5337720583847183</v>
+      </c>
+      <c r="E9">
+        <f>LOG(E7)</f>
+        <v>3.9133899436317554</v>
+      </c>
+      <c r="F9">
+        <f>TREND(D$2:D$51, C$2:C$51,E9)</f>
+        <v>8.2317488123925138</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>26774</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8">
+        <v>15225960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>51736</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7137928479390601</v>
+      </c>
+      <c r="H10">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>57976</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7632482483102221</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>63038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>94107</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9822712330395684</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9736219289352848</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <v>85726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>133062</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0492180226701815</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1240540468601887</v>
+      </c>
+      <c r="H13">
+        <v>112</v>
+      </c>
+      <c r="I13">
+        <v>107046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>132858</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1072099696478683</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1233877104305234</v>
+      </c>
+      <c r="H14">
+        <v>128</v>
+      </c>
+      <c r="I14">
+        <v>141210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <v>176426</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1583624920952498</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2465625877371824</v>
+      </c>
+      <c r="H15">
+        <v>144</v>
+      </c>
+      <c r="I15">
+        <v>162278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>160</v>
+      </c>
+      <c r="B16">
+        <v>227226</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2041199826559246</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3564580233879653</v>
+      </c>
+      <c r="H16">
+        <v>160</v>
+      </c>
+      <c r="I16">
+        <v>216198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>248204</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2455126678141499</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3948087762115815</v>
+      </c>
+      <c r="H17">
+        <v>176</v>
+      </c>
+      <c r="I17">
+        <v>269306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>192</v>
+      </c>
+      <c r="B18">
+        <v>251115</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2833012287035497</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3998726554554946</v>
+      </c>
+      <c r="H18">
+        <v>192</v>
+      </c>
+      <c r="I18">
+        <v>307458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>208</v>
+      </c>
+      <c r="B19">
+        <v>279484</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3180633349627615</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4463569502882461</v>
+      </c>
+      <c r="H19">
+        <v>208</v>
+      </c>
+      <c r="I19">
+        <v>349970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>224</v>
+      </c>
+      <c r="B20">
+        <v>317784</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3502480183341627</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5021320272746435</v>
+      </c>
+      <c r="H20">
+        <v>224</v>
+      </c>
+      <c r="I20">
+        <v>389242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>240</v>
+      </c>
+      <c r="B21">
+        <v>465105</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3802112417116059</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6675510083155105</v>
+      </c>
+      <c r="H21">
+        <v>240</v>
+      </c>
+      <c r="I21">
+        <v>403474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>256</v>
+      </c>
+      <c r="B22">
+        <v>410830</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4082399653118496</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6136621495278307</v>
+      </c>
+      <c r="H22">
+        <v>256</v>
+      </c>
+      <c r="I22">
+        <v>489286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>288</v>
+      </c>
+      <c r="B23">
+        <v>559007</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>2.459392487759231</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7474172462448117</v>
+      </c>
+      <c r="H23">
+        <v>272</v>
+      </c>
+      <c r="I23">
+        <v>596754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>320</v>
+      </c>
+      <c r="B24">
+        <v>503021</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5051499783199058</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7015861162562134</v>
+      </c>
+      <c r="H24">
+        <v>288</v>
+      </c>
+      <c r="I24">
+        <v>615994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>368</v>
+      </c>
+      <c r="B25">
+        <v>787078</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5658478186735176</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>5.8960177733895804</v>
+      </c>
+      <c r="H25">
+        <v>304</v>
+      </c>
+      <c r="I25">
+        <v>722698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>400</v>
+      </c>
+      <c r="B26">
+        <v>862155</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>5.9355853511997241</v>
+      </c>
+      <c r="H26">
+        <v>320</v>
+      </c>
+      <c r="I26">
+        <v>706910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>432</v>
+      </c>
+      <c r="B27">
+        <v>1340399</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6354837468149119</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>6.127234095159471</v>
+      </c>
+      <c r="H27">
+        <v>336</v>
+      </c>
+      <c r="I27">
+        <v>813090</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>464</v>
+      </c>
+      <c r="B28">
+        <v>1324147</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6665179805548807</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1219362009231997</v>
+      </c>
+      <c r="H28">
+        <v>352</v>
+      </c>
+      <c r="I28">
+        <v>955314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>496</v>
+      </c>
+      <c r="B29">
+        <v>1356069</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6954816764901977</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1322817880243043</v>
+      </c>
+      <c r="H29">
+        <v>368</v>
+      </c>
+      <c r="I29">
+        <v>980822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>512</v>
+      </c>
+      <c r="B30">
+        <v>1486631</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7092699609758308</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1722031846949461</v>
+      </c>
+      <c r="H30">
+        <v>384</v>
+      </c>
+      <c r="I30">
+        <v>1132222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>576</v>
+      </c>
+      <c r="B31">
+        <v>1653477</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7604224834232118</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>6.2183981582200536</v>
+      </c>
+      <c r="H31">
+        <v>400</v>
+      </c>
+      <c r="I31">
+        <v>1103354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>640</v>
+      </c>
+      <c r="B32">
+        <v>2446128</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8061799739838871</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>6.388479178881469</v>
+      </c>
+      <c r="H32">
+        <v>416</v>
+      </c>
+      <c r="I32">
+        <v>1342998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>704</v>
+      </c>
+      <c r="B33">
+        <v>2647618</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>2.847572659142112</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4228553250049636</v>
+      </c>
+      <c r="H33">
+        <v>432</v>
+      </c>
+      <c r="I33">
+        <v>1307126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>768</v>
+      </c>
+      <c r="B34">
+        <v>3112774</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8853612200315122</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4931475902887188</v>
+      </c>
+      <c r="H34">
+        <v>448</v>
+      </c>
+      <c r="I34">
+        <v>1438062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>832</v>
+      </c>
+      <c r="B35">
+        <v>3821618</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>2.920123326290724</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5822472738274911</v>
+      </c>
+      <c r="H35">
+        <v>464</v>
+      </c>
+      <c r="I35">
+        <v>1564502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>896</v>
+      </c>
+      <c r="B36">
+        <v>4011227</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9523080096621253</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6032772399068085</v>
+      </c>
+      <c r="H36">
+        <v>480</v>
+      </c>
+      <c r="I36">
+        <v>1663574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>960</v>
+      </c>
+      <c r="B37">
+        <v>4388784</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9822712330395684</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>6.642344206974732</v>
+      </c>
+      <c r="H37">
+        <v>496</v>
+      </c>
+      <c r="I37">
+        <v>1754214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>4979097</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0102999566398121</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6971505870415573</v>
+      </c>
+      <c r="H38">
+        <v>512</v>
+      </c>
+      <c r="I38">
+        <v>1944154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1100</v>
+      </c>
+      <c r="B39">
+        <v>6029403</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0413926851582249</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7802743126971592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1200</v>
+      </c>
+      <c r="B40">
+        <v>7179716</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0791812460476247</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>6.8561072656807083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1300</v>
+      </c>
+      <c r="B41">
+        <v>7957617</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1139433523068369</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9007830327257569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1400</v>
+      </c>
+      <c r="B42">
+        <v>9629902</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1461280356782382</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9836218674904966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1500</v>
+      </c>
+      <c r="B43">
+        <v>10165254</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0071182348599619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1600</v>
+      </c>
+      <c r="B44">
+        <v>12942687</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2041199826559246</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1120244485220736</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1700</v>
+      </c>
+      <c r="B45">
+        <v>13206323</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2304489213782741</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1207819150331746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1800</v>
+      </c>
+      <c r="B46">
+        <v>14182703</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="0"/>
+        <v>3.255272505103306</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1517590084291518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1900</v>
+      </c>
+      <c r="B47">
+        <v>17555815</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2787536009528289</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2444209956804269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2000</v>
+      </c>
+      <c r="B48">
+        <v>18107956</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2578694305448614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3000</v>
+      </c>
+      <c r="B49">
+        <v>40592272</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6084433600004209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4000</v>
+      </c>
+      <c r="B50">
+        <v>67332210</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8282228692585818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5000</v>
+      </c>
+      <c r="B51">
+        <v>109360142</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0388590654750587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+      <c r="B72" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B196FC-C838-2346-A098-16784AD355BF}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -17971,7 +22052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715415DA-F0A7-EF4E-A058-36C572CC705D}">
   <dimension ref="A1:M50"/>
   <sheetViews>
@@ -18986,7 +23067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E85721-B005-9449-BC37-BD4463D915FB}">
   <dimension ref="A1:G50"/>
   <sheetViews>
@@ -19684,7 +23765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12B4148-659C-3A49-8C3A-4C051CC980A7}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -20540,7 +24621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -20862,7 +24943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
